--- a/News_release_chart_data_August_2024.xlsx
+++ b/News_release_chart_data_August_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marieth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marieth/PROG8430-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0585D8-40D7-2748-86E3-A3CE533EC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DF4E1-6D7E-384B-A598-58ACA09D02BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -80,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -149,18 +149,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,11 +468,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -482,7 +482,7 @@
     <col min="7" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -501,11 +501,8 @@
       <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="11">
         <v>38353</v>
       </c>
@@ -525,7 +522,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="11">
         <v>38384</v>
       </c>
@@ -545,7 +542,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="11">
         <v>38412</v>
       </c>
@@ -565,7 +562,7 @@
         <v>173900</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="11">
         <v>38443</v>
       </c>
@@ -585,7 +582,7 @@
         <v>174600</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
         <v>38473</v>
       </c>
@@ -605,7 +602,7 @@
         <v>175400</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
         <v>38504</v>
       </c>
@@ -625,7 +622,7 @@
         <v>176800</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="11">
         <v>38534</v>
       </c>
@@ -645,7 +642,7 @@
         <v>178100</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="11">
         <v>38565</v>
       </c>
@@ -665,7 +662,7 @@
         <v>179200</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="11">
         <v>38596</v>
       </c>
@@ -685,7 +682,7 @@
         <v>182800</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="11">
         <v>38626</v>
       </c>
@@ -705,7 +702,7 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="11">
         <v>38657</v>
       </c>
@@ -725,7 +722,7 @@
         <v>186100</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" s="11">
         <v>38687</v>
       </c>
@@ -745,7 +742,7 @@
         <v>188200</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" s="11">
         <v>38718</v>
       </c>
@@ -765,7 +762,7 @@
         <v>190600</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" s="11">
         <v>38749</v>
       </c>
@@ -785,7 +782,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" s="11">
         <v>38777</v>
       </c>
